--- a/team_specific_matrix/Saint Louis_A.xlsx
+++ b/team_specific_matrix/Saint Louis_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1683168316831683</v>
+        <v>0.176056338028169</v>
       </c>
       <c r="C2">
-        <v>0.6039603960396039</v>
+        <v>0.5950704225352113</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009900990099009901</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1435643564356436</v>
+        <v>0.147887323943662</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07425742574257425</v>
+        <v>0.06690140845070422</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008130081300813009</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="C3">
-        <v>0.01626016260162602</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01626016260162602</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7804878048780488</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1788617886178862</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.75</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.2708333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04666666666666667</v>
+        <v>0.03723404255319149</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2333333333333333</v>
+        <v>0.2446808510638298</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.006666666666666667</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1466666666666667</v>
+        <v>0.1436170212765958</v>
       </c>
       <c r="R6">
-        <v>0.07333333333333333</v>
+        <v>0.09042553191489362</v>
       </c>
       <c r="S6">
-        <v>0.4133333333333333</v>
+        <v>0.3829787234042553</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1069182389937107</v>
+        <v>0.1185567010309278</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02515723270440252</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05660377358490566</v>
+        <v>0.04639175257731959</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1132075471698113</v>
+        <v>0.1134020618556701</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03773584905660377</v>
+        <v>0.03092783505154639</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1572327044025157</v>
+        <v>0.1494845360824742</v>
       </c>
       <c r="R7">
-        <v>0.06918238993710692</v>
+        <v>0.07216494845360824</v>
       </c>
       <c r="S7">
-        <v>0.4339622641509434</v>
+        <v>0.4484536082474227</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1196013289036545</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0132890365448505</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06312292358803986</v>
+        <v>0.06084656084656084</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1262458471760797</v>
+        <v>0.1164021164021164</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01993355481727575</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1561461794019934</v>
+        <v>0.1402116402116402</v>
       </c>
       <c r="R8">
-        <v>0.08305647840531562</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="S8">
-        <v>0.4186046511627907</v>
+        <v>0.4259259259259259</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1494252873563219</v>
+        <v>0.1512195121951219</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01724137931034483</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03448275862068965</v>
+        <v>0.03902439024390244</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08620689655172414</v>
+        <v>0.07804878048780488</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02298850574712644</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1724137931034483</v>
+        <v>0.1804878048780488</v>
       </c>
       <c r="R9">
-        <v>0.09770114942528736</v>
+        <v>0.08780487804878048</v>
       </c>
       <c r="S9">
-        <v>0.4195402298850575</v>
+        <v>0.424390243902439</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09632446134347275</v>
+        <v>0.108133971291866</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03041825095057034</v>
+        <v>0.03062200956937799</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08238276299112801</v>
+        <v>0.07942583732057416</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1064638783269962</v>
+        <v>0.09856459330143541</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02408111533586819</v>
+        <v>0.02296650717703349</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2141951837769328</v>
+        <v>0.215311004784689</v>
       </c>
       <c r="R10">
-        <v>0.09378960709759189</v>
+        <v>0.08899521531100478</v>
       </c>
       <c r="S10">
-        <v>0.3523447401774398</v>
+        <v>0.3559808612440191</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1497975708502024</v>
+        <v>0.1423728813559322</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08097165991902834</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="K11">
-        <v>0.1862348178137652</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="L11">
-        <v>0.5708502024291497</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01214574898785425</v>
+        <v>0.01016949152542373</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7482993197278912</v>
+        <v>0.7613636363636364</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1836734693877551</v>
+        <v>0.1761363636363636</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03401360544217687</v>
+        <v>0.02840909090909091</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03401360544217687</v>
+        <v>0.03409090909090909</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7037037037037037</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1851851851851852</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1111111111111111</v>
+        <v>0.1081081081081081</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01324503311258278</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1655629139072848</v>
+        <v>0.1450777202072539</v>
       </c>
       <c r="I15">
-        <v>0.06622516556291391</v>
+        <v>0.05699481865284974</v>
       </c>
       <c r="J15">
-        <v>0.3112582781456953</v>
+        <v>0.3212435233160622</v>
       </c>
       <c r="K15">
-        <v>0.05298013245033113</v>
+        <v>0.06217616580310881</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01324503311258278</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05298013245033113</v>
+        <v>0.05699481865284974</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3245033112582781</v>
+        <v>0.3160621761658031</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03378378378378379</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1891891891891892</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="I16">
-        <v>0.1418918918918919</v>
+        <v>0.1262626262626263</v>
       </c>
       <c r="J16">
-        <v>0.277027027027027</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="K16">
-        <v>0.1486486486486487</v>
+        <v>0.1313131313131313</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02027027027027027</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05405405405405406</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1351351351351351</v>
+        <v>0.1212121212121212</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01724137931034483</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1758620689655172</v>
+        <v>0.1815718157181572</v>
       </c>
       <c r="I17">
-        <v>0.1</v>
+        <v>0.1002710027100271</v>
       </c>
       <c r="J17">
-        <v>0.4</v>
+        <v>0.3983739837398374</v>
       </c>
       <c r="K17">
-        <v>0.1103448275862069</v>
+        <v>0.1002710027100271</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02413793103448276</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="N17">
-        <v>0.003448275862068965</v>
+        <v>0.002710027100271003</v>
       </c>
       <c r="O17">
-        <v>0.04827586206896552</v>
+        <v>0.06233062330623306</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1206896551724138</v>
+        <v>0.1138211382113821</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.007246376811594203</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1666666666666667</v>
+        <v>0.1534090909090909</v>
       </c>
       <c r="I18">
-        <v>0.1014492753623188</v>
+        <v>0.1079545454545455</v>
       </c>
       <c r="J18">
-        <v>0.3768115942028986</v>
+        <v>0.4034090909090909</v>
       </c>
       <c r="K18">
-        <v>0.1014492753623188</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01449275362318841</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="N18">
-        <v>0.007246376811594203</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="O18">
-        <v>0.09420289855072464</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1304347826086956</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009184845005740528</v>
+        <v>0.01154529307282416</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.208955223880597</v>
+        <v>0.2007104795737123</v>
       </c>
       <c r="I19">
-        <v>0.1159586681974742</v>
+        <v>0.1012433392539965</v>
       </c>
       <c r="J19">
-        <v>0.338691159586682</v>
+        <v>0.3641207815275311</v>
       </c>
       <c r="K19">
-        <v>0.1400688863375431</v>
+        <v>0.1287744227353464</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01492537313432836</v>
+        <v>0.01509769094138544</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0008880994671403197</v>
       </c>
       <c r="O19">
-        <v>0.06888633754305395</v>
+        <v>0.0630550621669627</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1033295063145809</v>
+        <v>0.1145648312611012</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Saint Louis_A.xlsx
+++ b/team_specific_matrix/Saint Louis_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.176056338028169</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C2">
-        <v>0.5950704225352113</v>
+        <v>0.6006191950464397</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01408450704225352</v>
+        <v>0.01238390092879257</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.147887323943662</v>
+        <v>0.1455108359133127</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06690140845070422</v>
+        <v>0.06501547987616099</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01176470588235294</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C3">
-        <v>0.01176470588235294</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02352941176470588</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7529411764705882</v>
+        <v>0.7628865979381443</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2</v>
+        <v>0.1958762886597938</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7291666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2708333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06382978723404255</v>
+        <v>0.06132075471698113</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01595744680851064</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03723404255319149</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2446808510638298</v>
+        <v>0.2452830188679245</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02127659574468085</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1436170212765958</v>
+        <v>0.1415094339622641</v>
       </c>
       <c r="R6">
-        <v>0.09042553191489362</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="S6">
-        <v>0.3829787234042553</v>
+        <v>0.3820754716981132</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1185567010309278</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02061855670103093</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04639175257731959</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1134020618556701</v>
+        <v>0.1100917431192661</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03092783505154639</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1494845360824742</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="R7">
-        <v>0.07216494845360824</v>
+        <v>0.06880733944954129</v>
       </c>
       <c r="S7">
-        <v>0.4484536082474227</v>
+        <v>0.4357798165137615</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1296296296296296</v>
+        <v>0.1425233644859813</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01851851851851852</v>
+        <v>0.01635514018691589</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06084656084656084</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1164021164021164</v>
+        <v>0.1168224299065421</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01587301587301587</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1402116402116402</v>
+        <v>0.1401869158878505</v>
       </c>
       <c r="R8">
-        <v>0.09259259259259259</v>
+        <v>0.09813084112149532</v>
       </c>
       <c r="S8">
-        <v>0.4259259259259259</v>
+        <v>0.4065420560747663</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1512195121951219</v>
+        <v>0.1446808510638298</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01951219512195122</v>
+        <v>0.01702127659574468</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03902439024390244</v>
+        <v>0.03404255319148936</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07804878048780488</v>
+        <v>0.1021276595744681</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01951219512195122</v>
+        <v>0.01702127659574468</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1804878048780488</v>
+        <v>0.1872340425531915</v>
       </c>
       <c r="R9">
-        <v>0.08780487804878048</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="S9">
-        <v>0.424390243902439</v>
+        <v>0.4127659574468085</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.108133971291866</v>
+        <v>0.1041844577284372</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03062200956937799</v>
+        <v>0.02988898377455167</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07942583732057416</v>
+        <v>0.07941929974380871</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09856459330143541</v>
+        <v>0.09649871904355252</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02296650717703349</v>
+        <v>0.02049530315969257</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.215311004784689</v>
+        <v>0.215200683176772</v>
       </c>
       <c r="R10">
-        <v>0.08899521531100478</v>
+        <v>0.09479077711357814</v>
       </c>
       <c r="S10">
-        <v>0.3559808612440191</v>
+        <v>0.3595217762596072</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1423728813559322</v>
+        <v>0.1402439024390244</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0847457627118644</v>
+        <v>0.08841463414634146</v>
       </c>
       <c r="K11">
-        <v>0.1864406779661017</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="L11">
-        <v>0.576271186440678</v>
+        <v>0.5762195121951219</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01016949152542373</v>
+        <v>0.01219512195121951</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7613636363636364</v>
+        <v>0.7411167512690355</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1761363636363636</v>
+        <v>0.1776649746192893</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02840909090909091</v>
+        <v>0.04060913705583756</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03409090909090909</v>
+        <v>0.04060913705583756</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7027027027027027</v>
+        <v>0.75</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1891891891891892</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1081081081081081</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0155440414507772</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1450777202072539</v>
+        <v>0.145631067961165</v>
       </c>
       <c r="I15">
-        <v>0.05699481865284974</v>
+        <v>0.06796116504854369</v>
       </c>
       <c r="J15">
-        <v>0.3212435233160622</v>
+        <v>0.3155339805825243</v>
       </c>
       <c r="K15">
-        <v>0.06217616580310881</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02590673575129534</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05699481865284974</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3160621761658031</v>
+        <v>0.3106796116504854</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0303030303030303</v>
+        <v>0.03539823008849557</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.196969696969697</v>
+        <v>0.1946902654867257</v>
       </c>
       <c r="I16">
-        <v>0.1262626262626263</v>
+        <v>0.1194690265486726</v>
       </c>
       <c r="J16">
-        <v>0.3181818181818182</v>
+        <v>0.3185840707964602</v>
       </c>
       <c r="K16">
-        <v>0.1313131313131313</v>
+        <v>0.1327433628318584</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0202020202020202</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05555555555555555</v>
+        <v>0.04867256637168142</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1212121212121212</v>
+        <v>0.1238938053097345</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01626016260162602</v>
+        <v>0.01435406698564593</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1815718157181572</v>
+        <v>0.1913875598086124</v>
       </c>
       <c r="I17">
-        <v>0.1002710027100271</v>
+        <v>0.1004784688995215</v>
       </c>
       <c r="J17">
-        <v>0.3983739837398374</v>
+        <v>0.3923444976076555</v>
       </c>
       <c r="K17">
-        <v>0.1002710027100271</v>
+        <v>0.1028708133971292</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02439024390243903</v>
+        <v>0.02870813397129187</v>
       </c>
       <c r="N17">
-        <v>0.002710027100271003</v>
+        <v>0.002392344497607655</v>
       </c>
       <c r="O17">
-        <v>0.06233062330623306</v>
+        <v>0.05741626794258373</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1138211382113821</v>
+        <v>0.1100478468899522</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01136363636363636</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1534090909090909</v>
+        <v>0.1594202898550725</v>
       </c>
       <c r="I18">
-        <v>0.1079545454545455</v>
+        <v>0.106280193236715</v>
       </c>
       <c r="J18">
-        <v>0.4034090909090909</v>
+        <v>0.4106280193236715</v>
       </c>
       <c r="K18">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01136363636363636</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="N18">
-        <v>0.005681818181818182</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="O18">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.125</v>
+        <v>0.1207729468599034</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01154529307282416</v>
+        <v>0.01203852327447833</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2007104795737123</v>
+        <v>0.2014446227929374</v>
       </c>
       <c r="I19">
-        <v>0.1012433392539965</v>
+        <v>0.1051364365971107</v>
       </c>
       <c r="J19">
-        <v>0.3641207815275311</v>
+        <v>0.3627608346709471</v>
       </c>
       <c r="K19">
-        <v>0.1287744227353464</v>
+        <v>0.1284109149277688</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01509769094138544</v>
+        <v>0.014446227929374</v>
       </c>
       <c r="N19">
-        <v>0.0008880994671403197</v>
+        <v>0.001605136436597111</v>
       </c>
       <c r="O19">
-        <v>0.0630550621669627</v>
+        <v>0.06179775280898876</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1145648312611012</v>
+        <v>0.1123595505617977</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Saint Louis_A.xlsx
+++ b/team_specific_matrix/Saint Louis_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1764705882352941</v>
+        <v>0.1757575757575758</v>
       </c>
       <c r="C2">
-        <v>0.6006191950464397</v>
+        <v>0.603030303030303</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01238390092879257</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1455108359133127</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06501547987616099</v>
+        <v>0.06363636363636363</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01030927835051546</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="C3">
-        <v>0.01030927835051546</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02061855670103093</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7628865979381443</v>
+        <v>0.7688442211055276</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1958762886597938</v>
+        <v>0.1909547738693467</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.75</v>
+        <v>0.7678571428571429</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.2321428571428572</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06132075471698113</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01886792452830189</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03773584905660377</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2452830188679245</v>
+        <v>0.2431192660550459</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01886792452830189</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1415094339622641</v>
+        <v>0.1422018348623853</v>
       </c>
       <c r="R6">
-        <v>0.09433962264150944</v>
+        <v>0.0963302752293578</v>
       </c>
       <c r="S6">
-        <v>0.3820754716981132</v>
+        <v>0.3807339449541284</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1376146788990826</v>
+        <v>0.1339285714285714</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01834862385321101</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04587155963302753</v>
+        <v>0.04464285714285714</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1100917431192661</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02752293577981652</v>
+        <v>0.02678571428571428</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1559633027522936</v>
+        <v>0.15625</v>
       </c>
       <c r="R7">
-        <v>0.06880733944954129</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="S7">
-        <v>0.4357798165137615</v>
+        <v>0.4419642857142857</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1425233644859813</v>
+        <v>0.1393258426966292</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01635514018691589</v>
+        <v>0.01573033707865169</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06542056074766354</v>
+        <v>0.06292134831460675</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1168224299065421</v>
+        <v>0.1168539325842697</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01401869158878505</v>
+        <v>0.01348314606741573</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1401869158878505</v>
+        <v>0.150561797752809</v>
       </c>
       <c r="R8">
-        <v>0.09813084112149532</v>
+        <v>0.09662921348314607</v>
       </c>
       <c r="S8">
-        <v>0.4065420560747663</v>
+        <v>0.4044943820224719</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1446808510638298</v>
+        <v>0.1383399209486166</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01702127659574468</v>
+        <v>0.01976284584980237</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03404255319148936</v>
+        <v>0.03557312252964427</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1021276595744681</v>
+        <v>0.09881422924901186</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01702127659574468</v>
+        <v>0.0158102766798419</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1872340425531915</v>
+        <v>0.1936758893280632</v>
       </c>
       <c r="R9">
-        <v>0.0851063829787234</v>
+        <v>0.08300395256916997</v>
       </c>
       <c r="S9">
-        <v>0.4127659574468085</v>
+        <v>0.4150197628458498</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1041844577284372</v>
+        <v>0.1039068994181214</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02988898377455167</v>
+        <v>0.03158769742310889</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07941929974380871</v>
+        <v>0.0798004987531172</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09649871904355252</v>
+        <v>0.09559434746467166</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02049530315969257</v>
+        <v>0.0199501246882793</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.215200683176772</v>
+        <v>0.2152950955943475</v>
       </c>
       <c r="R10">
-        <v>0.09479077711357814</v>
+        <v>0.09393183707398171</v>
       </c>
       <c r="S10">
-        <v>0.3595217762596072</v>
+        <v>0.3599334995843724</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1402439024390244</v>
+        <v>0.1420118343195266</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08841463414634146</v>
+        <v>0.08875739644970414</v>
       </c>
       <c r="K11">
-        <v>0.1829268292682927</v>
+        <v>0.1863905325443787</v>
       </c>
       <c r="L11">
-        <v>0.5762195121951219</v>
+        <v>0.5710059171597633</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01219512195121951</v>
+        <v>0.01183431952662722</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7411167512690355</v>
+        <v>0.746268656716418</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1776649746192893</v>
+        <v>0.1741293532338309</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.04060913705583756</v>
+        <v>0.03980099502487562</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04060913705583756</v>
+        <v>0.03980099502487562</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01456310679611651</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.145631067961165</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="I15">
-        <v>0.06796116504854369</v>
+        <v>0.06572769953051644</v>
       </c>
       <c r="J15">
-        <v>0.3155339805825243</v>
+        <v>0.3286384976525822</v>
       </c>
       <c r="K15">
-        <v>0.05825242718446602</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02912621359223301</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05825242718446602</v>
+        <v>0.06103286384976526</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3106796116504854</v>
+        <v>0.3051643192488263</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03539823008849557</v>
+        <v>0.03404255319148936</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1946902654867257</v>
+        <v>0.1872340425531915</v>
       </c>
       <c r="I16">
-        <v>0.1194690265486726</v>
+        <v>0.1319148936170213</v>
       </c>
       <c r="J16">
-        <v>0.3185840707964602</v>
+        <v>0.3106382978723404</v>
       </c>
       <c r="K16">
-        <v>0.1327433628318584</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02654867256637168</v>
+        <v>0.02553191489361702</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04867256637168142</v>
+        <v>0.05531914893617021</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1238938053097345</v>
+        <v>0.1276595744680851</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01435406698564593</v>
+        <v>0.01366742596810934</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1913875598086124</v>
+        <v>0.1981776765375854</v>
       </c>
       <c r="I17">
-        <v>0.1004784688995215</v>
+        <v>0.10250569476082</v>
       </c>
       <c r="J17">
-        <v>0.3923444976076555</v>
+        <v>0.387243735763098</v>
       </c>
       <c r="K17">
-        <v>0.1028708133971292</v>
+        <v>0.1002277904328018</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02870813397129187</v>
+        <v>0.02733485193621868</v>
       </c>
       <c r="N17">
-        <v>0.002392344497607655</v>
+        <v>0.002277904328018223</v>
       </c>
       <c r="O17">
-        <v>0.05741626794258373</v>
+        <v>0.05922551252847381</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1100478468899522</v>
+        <v>0.1093394077448747</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.00966183574879227</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1594202898550725</v>
+        <v>0.1643192488262911</v>
       </c>
       <c r="I18">
-        <v>0.106280193236715</v>
+        <v>0.1032863849765258</v>
       </c>
       <c r="J18">
-        <v>0.4106280193236715</v>
+        <v>0.4131455399061033</v>
       </c>
       <c r="K18">
-        <v>0.08695652173913043</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.00966183574879227</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="N18">
-        <v>0.00966183574879227</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="O18">
-        <v>0.08695652173913043</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1207729468599034</v>
+        <v>0.1220657276995305</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01203852327447833</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2014446227929374</v>
+        <v>0.2015503875968992</v>
       </c>
       <c r="I19">
-        <v>0.1051364365971107</v>
+        <v>0.110077519379845</v>
       </c>
       <c r="J19">
-        <v>0.3627608346709471</v>
+        <v>0.3581395348837209</v>
       </c>
       <c r="K19">
-        <v>0.1284109149277688</v>
+        <v>0.1286821705426357</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.014446227929374</v>
+        <v>0.01395348837209302</v>
       </c>
       <c r="N19">
-        <v>0.001605136436597111</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="O19">
-        <v>0.06179775280898876</v>
+        <v>0.06124031007751938</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1123595505617977</v>
+        <v>0.1131782945736434</v>
       </c>
     </row>
   </sheetData>
